--- a/vectorSearchTesting/timings_60_question_score0_86.xlsx
+++ b/vectorSearchTesting/timings_60_question_score0_86.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\vectorSearchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E27D4E-D850-41BF-99DC-E46EAE307D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8A578-BC28-41F0-AED2-F18A1F929E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,11 +611,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1846,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E227B30-706D-466A-B2AF-5C9F85D6261A}">
   <dimension ref="B5:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
